--- a/biology/Zoologie/Euchorthippus/Euchorthippus.xlsx
+++ b/biology/Zoologie/Euchorthippus/Euchorthippus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euchorthippus est un genre d’insectes de la famille des Acrididae.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Euchorthippus a été créé en 1926 par l'entomologiste russe Serafim P. Tarbinsky (d).
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (17 janvier 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (17 janvier 2020) :
 Euchorthippus acarinatus Zheng, Z. &amp; D. He, 1993
 Euchorthippus albolineatus (Lucas, P.H., 1849)
 Euchorthippus angustulus Ramme, 1931
@@ -578,7 +594,7 @@
 Euchorthippus yungningensis Zheng, Z., 1965
 Euchorthippus zhongtiaoshanensis Zheng, Z. &amp; R.-S. Lu, 2002
 Euchorthippus zuojianus Zhang, Fengling &amp; Bingzhong Ren, 1993
-Selon Orthoptera Species File  (17 janvier 2020)[1] :
+Selon Orthoptera Species File  (17 janvier 2020) :
 Euchorthippus acarinatus Zheng &amp; He, 1993
 Euchorthippus albolineatus (Lucas, 1849)
 sous-espèce E. albolineatus albolineatus (Lucas, 1849)
